--- a/biology/Zoologie/Haplochromis_bareli/Haplochromis_bareli.xlsx
+++ b/biology/Zoologie/Haplochromis_bareli/Haplochromis_bareli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Haplochromis bareli est une espèce de poissons de la famille des Cichlidés.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Haplochromis bareli a été décrite en 1991 par le zoologiste néerlandais Martien J. P. van Oijen (d)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Haplochromis bareli a été décrite en 1991 par le zoologiste néerlandais Martien J. P. van Oijen (d).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du lac Victoria en Afrique. Elle n'a été observée que sur le territoire de la Tanzanie[2] mais ni en Ouganda, ni au Kenya qui possèdent également une partie du lac.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du lac Victoria en Afrique. Elle n'a été observée que sur le territoire de la Tanzanie mais ni en Ouganda, ni au Kenya qui possèdent également une partie du lac.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) M. J. P. van Oijen, « A systematic revision of the piscivorous haplochromine Cichlidae (Pisces: Teleostei) of Lake Victoria (East Africa). Part I », Zoologische Verhandelingen, Leyde, Musée national d'histoire naturelle, vol. 272, no 1,‎ 1991, p. 1-95 (ISSN 0024-1652, lire en ligne)</t>
         </is>
